--- a/data/contratos.xlsx
+++ b/data/contratos.xlsx
@@ -1,37 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>fechaInicio</t>
+  </si>
+  <si>
+    <t>fechaFin</t>
+  </si>
+  <si>
+    <t>condiciones</t>
+  </si>
+  <si>
+    <t>activosAsociados</t>
+  </si>
+  <si>
+    <t>diasNotificar</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>Edde</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>['100000 - M (Cliente)']</t>
+  </si>
+  <si>
+    <t>['100002 - InfusionPump X2 (TEC-Clinic)', '100003 - Vent-Plus 5 (Hospital San Vicente)', '100001 - ECG-3000 (Hospital México)']</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Por vencer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +117,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,144 +433,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cliente</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fechaInicio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>fechaFin</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>condiciones</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>activosAsociados</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>diasNotificar</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>jjjjjjjjjjjjjjjj</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['Fish Biscuit', 'Madam President']</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Por vencer</t>
-        </is>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MediCap</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4-11-2025</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20-11-2025</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Debe entregar a tiempo</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['3 - IX120-9988', '6 - PJHD-8765']</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Por vencer</t>
-        </is>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/contratos.xlsx
+++ b/data/contratos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -46,34 +46,100 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Jose</t>
   </si>
   <si>
     <t>Manuel</t>
   </si>
   <si>
+    <t>Eddye</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio </t>
+  </si>
+  <si>
     <t>2025-11-08</t>
   </si>
   <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
     <t>2025-11-20</t>
   </si>
   <si>
     <t>2025-11-22</t>
   </si>
   <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
     <t>Edde</t>
   </si>
   <si>
     <t>Notas</t>
   </si>
   <si>
+    <t xml:space="preserve">No existe condicion </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Causa</t>
+  </si>
+  <si>
     <t>['100000 - M (Cliente)']</t>
   </si>
   <si>
     <t>['100002 - InfusionPump X2 (TEC-Clinic)', '100003 - Vent-Plus 5 (Hospital San Vicente)', '100001 - ECG-3000 (Hospital México)']</t>
   </si>
   <si>
+    <t>['01 - M11 (111)', '100000 - M (Cliente)']</t>
+  </si>
+  <si>
+    <t>['100002 - InfusionPump X2 (TEC-Clinic)']</t>
+  </si>
+  <si>
+    <t>['01 - M11 (111)', '100001 - ECG-3000 (Hospital México)']</t>
+  </si>
+  <si>
+    <t>['08 - M4 ()']</t>
+  </si>
+  <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>Por vencer</t>
@@ -434,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,25 +537,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,25 +563,155 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/contratos.xlsx
+++ b/data/contratos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -40,25 +40,7 @@
     <t>estado</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>dias_restantes</t>
   </si>
   <si>
     <t>Jose</t>
@@ -76,6 +58,9 @@
     <t xml:space="preserve">Sergio </t>
   </si>
   <si>
+    <t>Eddye1</t>
+  </si>
+  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -88,16 +73,7 @@
     <t>2025-11-06</t>
   </si>
   <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
+    <t>2025-09-02</t>
   </si>
   <si>
     <t>Edde</t>
@@ -118,6 +94,9 @@
     <t>Causa</t>
   </si>
   <si>
+    <t>no hay condición</t>
+  </si>
+  <si>
     <t>['100000 - M (Cliente)']</t>
   </si>
   <si>
@@ -136,19 +115,22 @@
     <t>['08 - M4 ()']</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>['100003 - Vent-Plus 5 (Hospital San Vicente)', '100002 - InfusionPump X2 (TEC-Clinic)', '100001 - ECG-3000 (Hospital México)', '01 - M11 (111)', '7 - Servidor (Banco Nacional)']</t>
   </si>
   <si>
     <t>Por vencer</t>
+  </si>
+  <si>
+    <t>Vencido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -201,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,187 +514,240 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>45981</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45983</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45970</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45967</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45970</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45970</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45975</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45931</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>-41</v>
       </c>
     </row>
   </sheetData>

--- a/data/contratos.xlsx
+++ b/data/contratos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,21 @@
     <t>Eddye1</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -76,6 +91,12 @@
     <t>2025-09-02</t>
   </si>
   <si>
+    <t>2025/11/11</t>
+  </si>
+  <si>
+    <t>2025/11/12</t>
+  </si>
+  <si>
     <t>Edde</t>
   </si>
   <si>
@@ -97,6 +118,21 @@
     <t>no hay condición</t>
   </si>
   <si>
+    <t>Nuevo contrato para hospital.</t>
+  </si>
+  <si>
+    <t>cambios de lugar</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>No hay cambios</t>
+  </si>
+  <si>
     <t>['100000 - M (Cliente)']</t>
   </si>
   <si>
@@ -116,6 +152,21 @@
   </si>
   <si>
     <t>['100003 - Vent-Plus 5 (Hospital San Vicente)', '100002 - InfusionPump X2 (TEC-Clinic)', '100001 - ECG-3000 (Hospital México)', '01 - M11 (111)', '7 - Servidor (Banco Nacional)']</t>
+  </si>
+  <si>
+    <t>["100001.0 - ECG-3000 (Hospital México)", "100000.0 - M (Cliente)"]</t>
+  </si>
+  <si>
+    <t>["100002.0 - InfusionPump X2 (TEC-Clinic)", "100001.0 - ECG-3000 (Hospital México)"]</t>
+  </si>
+  <si>
+    <t>["7.0 - Servidor (Banco Nacional)", "100002.0 - InfusionPump X2 (TEC-Clinic)"]</t>
+  </si>
+  <si>
+    <t>["10000.0 - 1", "100002.0 - InfusionPump X2 (TEC-Clinic)", "100003.0 - Vent-Plus 5 (Hospital San Vicente)"]</t>
+  </si>
+  <si>
+    <t>["100001.0 - ECG-3000 (Hospital México)", "100003.0 - Vent-Plus 5 (Hospital San Vicente)", "100002.0 - InfusionPump X2 (TEC-Clinic)"]</t>
   </si>
   <si>
     <t>Por vencer</t>
@@ -483,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,22 +577,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>45981</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -555,22 +606,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>45983</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -584,22 +635,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>45970</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>-2</v>
@@ -613,22 +664,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>45967</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <v>-5</v>
@@ -642,22 +693,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>45970</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>-2</v>
@@ -671,22 +722,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>45970</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I7">
         <v>-2</v>
@@ -700,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>45975</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -729,25 +780,170 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>45931</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <v>-41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45982</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45990</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45973</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45982</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/contratos.xlsx
+++ b/data/contratos.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,23 +450,116 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>fechaInicio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>fechaFin</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>condiciones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>activosAsociados</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>diasNotificar</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>estado</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>dias_restantes</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Herramientas de equipo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>["5 - Laptop (Intel)", "8 - Servidor (INS)"]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Por vencer</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ricardo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Práctica de universidad</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>["1 - Servidor (UCR)", "2 - Laptop (UCR)"]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vigente</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
